--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.241320666666667</v>
+        <v>42.25083266666667</v>
       </c>
       <c r="H2">
-        <v>24.723962</v>
+        <v>126.752498</v>
       </c>
       <c r="I2">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525925</v>
       </c>
       <c r="J2">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525926</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.565581</v>
+        <v>60.99483233333333</v>
       </c>
       <c r="N2">
-        <v>190.696743</v>
+        <v>182.984497</v>
       </c>
       <c r="O2">
-        <v>0.9889113760447804</v>
+        <v>0.9932667581229833</v>
       </c>
       <c r="P2">
-        <v>0.9889113760447804</v>
+        <v>0.9932667581229833</v>
       </c>
       <c r="Q2">
-        <v>523.864336383974</v>
+        <v>2577.082454447057</v>
       </c>
       <c r="R2">
-        <v>4714.779027455766</v>
+        <v>23193.74209002351</v>
       </c>
       <c r="S2">
-        <v>0.4145692917966138</v>
+        <v>0.7461032197647737</v>
       </c>
       <c r="T2">
-        <v>0.4145692917966138</v>
+        <v>0.7461032197647738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.241320666666667</v>
+        <v>42.25083266666667</v>
       </c>
       <c r="H3">
-        <v>24.723962</v>
+        <v>126.752498</v>
       </c>
       <c r="I3">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525925</v>
       </c>
       <c r="J3">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525926</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.105478</v>
       </c>
       <c r="O3">
-        <v>0.0005469857139744193</v>
+        <v>0.0005725500948492704</v>
       </c>
       <c r="P3">
-        <v>0.0005469857139744193</v>
+        <v>0.0005725500948492704</v>
       </c>
       <c r="Q3">
-        <v>0.2897593404262223</v>
+        <v>1.485511109338222</v>
       </c>
       <c r="R3">
-        <v>2.607834063836</v>
+        <v>13.369599984044</v>
       </c>
       <c r="S3">
-        <v>0.0002293061699544771</v>
+        <v>0.0004300772836200916</v>
       </c>
       <c r="T3">
-        <v>0.0002293061699544771</v>
+        <v>0.0004300772836200917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.241320666666667</v>
+        <v>42.25083266666667</v>
       </c>
       <c r="H4">
-        <v>24.723962</v>
+        <v>126.752498</v>
       </c>
       <c r="I4">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525925</v>
       </c>
       <c r="J4">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525926</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.03516833333333334</v>
+        <v>0.03390533333333334</v>
       </c>
       <c r="N4">
-        <v>0.105505</v>
+        <v>0.101716</v>
       </c>
       <c r="O4">
-        <v>0.0005471257300372695</v>
+        <v>0.0005521294056361363</v>
       </c>
       <c r="P4">
-        <v>0.0005471257300372695</v>
+        <v>0.0005521294056361363</v>
       </c>
       <c r="Q4">
-        <v>0.2898335123122223</v>
+        <v>1.432528565174222</v>
       </c>
       <c r="R4">
-        <v>2.60850161081</v>
+        <v>12.892757086568</v>
       </c>
       <c r="S4">
-        <v>0.0002293648671860208</v>
+        <v>0.0004147380589383685</v>
       </c>
       <c r="T4">
-        <v>0.0002293648671860208</v>
+        <v>0.0004147380589383686</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.241320666666667</v>
+        <v>42.25083266666667</v>
       </c>
       <c r="H5">
-        <v>24.723962</v>
+        <v>126.752498</v>
       </c>
       <c r="I5">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525925</v>
       </c>
       <c r="J5">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525926</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4795373333333333</v>
+        <v>0.3125506666666666</v>
       </c>
       <c r="N5">
-        <v>1.438612</v>
+        <v>0.9376519999999999</v>
       </c>
       <c r="O5">
-        <v>0.007460325489222087</v>
+        <v>0.005089712940476763</v>
       </c>
       <c r="P5">
-        <v>0.007460325489222088</v>
+        <v>0.005089712940476763</v>
       </c>
       <c r="Q5">
-        <v>3.952020935638222</v>
+        <v>13.20552591718844</v>
       </c>
       <c r="R5">
-        <v>35.568188420744</v>
+        <v>118.849733254696</v>
       </c>
       <c r="S5">
-        <v>0.003127501543170615</v>
+        <v>0.003823193700496275</v>
       </c>
       <c r="T5">
-        <v>0.003127501543170616</v>
+        <v>0.003823193700496275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.241320666666667</v>
+        <v>42.25083266666667</v>
       </c>
       <c r="H6">
-        <v>24.723962</v>
+        <v>126.752498</v>
       </c>
       <c r="I6">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525925</v>
       </c>
       <c r="J6">
-        <v>0.4192178407884359</v>
+        <v>0.7511609682525926</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1628933333333333</v>
+        <v>0.03186166666666667</v>
       </c>
       <c r="N6">
-        <v>0.48868</v>
+        <v>0.095585</v>
       </c>
       <c r="O6">
-        <v>0.00253418702198581</v>
+        <v>0.0005188494360546039</v>
       </c>
       <c r="P6">
-        <v>0.00253418702198581</v>
+        <v>0.0005188494360546038</v>
       </c>
       <c r="Q6">
-        <v>1.342456194462222</v>
+        <v>1.346181946814445</v>
       </c>
       <c r="R6">
-        <v>12.08210575016</v>
+        <v>12.11563752133</v>
       </c>
       <c r="S6">
-        <v>0.001062376411510968</v>
+        <v>0.0003897394447640879</v>
       </c>
       <c r="T6">
-        <v>0.001062376411510968</v>
+        <v>0.0003897394447640878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>5.572160999999999</v>
       </c>
       <c r="I7">
-        <v>0.09448118804524663</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="J7">
-        <v>0.09448118804524662</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.565581</v>
+        <v>60.99483233333333</v>
       </c>
       <c r="N7">
-        <v>190.696743</v>
+        <v>182.984497</v>
       </c>
       <c r="O7">
-        <v>0.9889113760447804</v>
+        <v>0.9932667581229833</v>
       </c>
       <c r="P7">
-        <v>0.9889113760447804</v>
+        <v>0.9932667581229833</v>
       </c>
       <c r="Q7">
-        <v>118.065883796847</v>
+        <v>113.291008643113</v>
       </c>
       <c r="R7">
-        <v>1062.592954171623</v>
+        <v>1019.619077788017</v>
       </c>
       <c r="S7">
-        <v>0.09343352168017051</v>
+        <v>0.03279941088930414</v>
       </c>
       <c r="T7">
-        <v>0.09343352168017049</v>
+        <v>0.03279941088930414</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>5.572160999999999</v>
       </c>
       <c r="I8">
-        <v>0.09448118804524663</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="J8">
-        <v>0.09448118804524662</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,10 +939,10 @@
         <v>0.105478</v>
       </c>
       <c r="O8">
-        <v>0.0005469857139744193</v>
+        <v>0.0005725500948492704</v>
       </c>
       <c r="P8">
-        <v>0.0005469857139744193</v>
+        <v>0.0005725500948492704</v>
       </c>
       <c r="Q8">
         <v>0.065304488662</v>
@@ -951,10 +951,10 @@
         <v>0.5877403979579999</v>
       </c>
       <c r="S8">
-        <v>5.167986010008061E-05</v>
+        <v>1.890660858434374E-05</v>
       </c>
       <c r="T8">
-        <v>5.16798601000806E-05</v>
+        <v>1.890660858434374E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>5.572160999999999</v>
       </c>
       <c r="I9">
-        <v>0.09448118804524663</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="J9">
-        <v>0.09448118804524662</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03516833333333334</v>
+        <v>0.03390533333333334</v>
       </c>
       <c r="N9">
-        <v>0.105505</v>
+        <v>0.101716</v>
       </c>
       <c r="O9">
-        <v>0.0005471257300372695</v>
+        <v>0.0005521294056361363</v>
       </c>
       <c r="P9">
-        <v>0.0005471257300372695</v>
+        <v>0.0005521294056361363</v>
       </c>
       <c r="Q9">
-        <v>0.06532120514500001</v>
+        <v>0.062975325364</v>
       </c>
       <c r="R9">
-        <v>0.587890846305</v>
+        <v>0.5667779282759999</v>
       </c>
       <c r="S9">
-        <v>5.169308898404411E-05</v>
+        <v>1.823228160151982E-05</v>
       </c>
       <c r="T9">
-        <v>5.16930889840441E-05</v>
+        <v>1.823228160151982E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>5.572160999999999</v>
       </c>
       <c r="I10">
-        <v>0.09448118804524663</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="J10">
-        <v>0.09448118804524662</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4795373333333333</v>
+        <v>0.3125506666666666</v>
       </c>
       <c r="N10">
-        <v>1.438612</v>
+        <v>0.9376519999999999</v>
       </c>
       <c r="O10">
-        <v>0.007460325489222087</v>
+        <v>0.005089712940476763</v>
       </c>
       <c r="P10">
-        <v>0.007460325489222088</v>
+        <v>0.005089712940476763</v>
       </c>
       <c r="Q10">
-        <v>0.8906864089479999</v>
+        <v>0.580527545108</v>
       </c>
       <c r="R10">
-        <v>8.016177680532</v>
+        <v>5.224747905971999</v>
       </c>
       <c r="S10">
-        <v>0.0007048604154259385</v>
+        <v>0.0001680712504249898</v>
       </c>
       <c r="T10">
-        <v>0.0007048604154259385</v>
+        <v>0.0001680712504249898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,40 +1107,40 @@
         <v>5.572160999999999</v>
       </c>
       <c r="I11">
-        <v>0.09448118804524663</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="J11">
-        <v>0.09448118804524662</v>
+        <v>0.03302175434853626</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1628933333333333</v>
+        <v>0.03186166666666667</v>
       </c>
       <c r="N11">
-        <v>0.48868</v>
+        <v>0.095585</v>
       </c>
       <c r="O11">
-        <v>0.00253418702198581</v>
+        <v>0.0005188494360546039</v>
       </c>
       <c r="P11">
-        <v>0.00253418702198581</v>
+        <v>0.0005188494360546038</v>
       </c>
       <c r="Q11">
-        <v>0.30255595972</v>
+        <v>0.059179445465</v>
       </c>
       <c r="R11">
-        <v>2.72300363748</v>
+        <v>0.5326150091849999</v>
       </c>
       <c r="S11">
-        <v>0.0002394330005660649</v>
+        <v>1.71333186212717E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002394330005660648</v>
+        <v>1.71333186212717E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.472213333333333</v>
+        <v>2.376224</v>
       </c>
       <c r="H12">
-        <v>4.416639999999999</v>
+        <v>7.128672</v>
       </c>
       <c r="I12">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006155</v>
       </c>
       <c r="J12">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006156</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.565581</v>
+        <v>60.99483233333333</v>
       </c>
       <c r="N12">
-        <v>190.696743</v>
+        <v>182.984497</v>
       </c>
       <c r="O12">
-        <v>0.9889113760447804</v>
+        <v>0.9932667581229833</v>
       </c>
       <c r="P12">
-        <v>0.9889113760447804</v>
+        <v>0.9932667581229833</v>
       </c>
       <c r="Q12">
-        <v>93.58209588928</v>
+        <v>144.9373844664427</v>
       </c>
       <c r="R12">
-        <v>842.2388630035199</v>
+        <v>1304.436460197984</v>
       </c>
       <c r="S12">
-        <v>0.07405784384074836</v>
+        <v>0.04196150147547379</v>
       </c>
       <c r="T12">
-        <v>0.07405784384074836</v>
+        <v>0.0419615014754738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.472213333333333</v>
+        <v>2.376224</v>
       </c>
       <c r="H13">
-        <v>4.416639999999999</v>
+        <v>7.128672</v>
       </c>
       <c r="I13">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006155</v>
       </c>
       <c r="J13">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006156</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1249,22 +1249,22 @@
         <v>0.105478</v>
       </c>
       <c r="O13">
-        <v>0.0005469857139744193</v>
+        <v>0.0005725500948492704</v>
       </c>
       <c r="P13">
-        <v>0.0005469857139744193</v>
+        <v>0.0005725500948492704</v>
       </c>
       <c r="Q13">
-        <v>0.05176203932444444</v>
+        <v>0.08354645169066667</v>
       </c>
       <c r="R13">
-        <v>0.4658583539199999</v>
+        <v>0.751918065216</v>
       </c>
       <c r="S13">
-        <v>4.096280371518697E-05</v>
+        <v>2.418792479796813E-05</v>
       </c>
       <c r="T13">
-        <v>4.096280371518697E-05</v>
+        <v>2.418792479796813E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.472213333333333</v>
+        <v>2.376224</v>
       </c>
       <c r="H14">
-        <v>4.416639999999999</v>
+        <v>7.128672</v>
       </c>
       <c r="I14">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006155</v>
       </c>
       <c r="J14">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006156</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03516833333333334</v>
+        <v>0.03390533333333334</v>
       </c>
       <c r="N14">
-        <v>0.105505</v>
+        <v>0.101716</v>
       </c>
       <c r="O14">
-        <v>0.0005471257300372695</v>
+        <v>0.0005521294056361363</v>
       </c>
       <c r="P14">
-        <v>0.0005471257300372695</v>
+        <v>0.0005521294056361363</v>
       </c>
       <c r="Q14">
-        <v>0.05177528924444444</v>
+        <v>0.08056666679466667</v>
       </c>
       <c r="R14">
-        <v>0.4659776031999999</v>
+        <v>0.725100001152</v>
       </c>
       <c r="S14">
-        <v>4.097328927331578E-05</v>
+        <v>2.332523330694672E-05</v>
       </c>
       <c r="T14">
-        <v>4.097328927331578E-05</v>
+        <v>2.332523330694672E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.472213333333333</v>
+        <v>2.376224</v>
       </c>
       <c r="H15">
-        <v>4.416639999999999</v>
+        <v>7.128672</v>
       </c>
       <c r="I15">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006155</v>
       </c>
       <c r="J15">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006156</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4795373333333333</v>
+        <v>0.3125506666666666</v>
       </c>
       <c r="N15">
-        <v>1.438612</v>
+        <v>0.9376519999999999</v>
       </c>
       <c r="O15">
-        <v>0.007460325489222087</v>
+        <v>0.005089712940476763</v>
       </c>
       <c r="P15">
-        <v>0.007460325489222088</v>
+        <v>0.005089712940476763</v>
       </c>
       <c r="Q15">
-        <v>0.7059812559644443</v>
+        <v>0.7426903953493333</v>
       </c>
       <c r="R15">
-        <v>6.353831303679999</v>
+        <v>6.684213558143999</v>
       </c>
       <c r="S15">
-        <v>0.0005586907315109555</v>
+        <v>0.0002150197772299855</v>
       </c>
       <c r="T15">
-        <v>0.0005586907315109555</v>
+        <v>0.0002150197772299855</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.472213333333333</v>
+        <v>2.376224</v>
       </c>
       <c r="H16">
-        <v>4.416639999999999</v>
+        <v>7.128672</v>
       </c>
       <c r="I16">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006155</v>
       </c>
       <c r="J16">
-        <v>0.07488825150029908</v>
+        <v>0.04224595370006156</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1628933333333333</v>
+        <v>0.03186166666666667</v>
       </c>
       <c r="N16">
-        <v>0.48868</v>
+        <v>0.095585</v>
       </c>
       <c r="O16">
-        <v>0.00253418702198581</v>
+        <v>0.0005188494360546039</v>
       </c>
       <c r="P16">
-        <v>0.00253418702198581</v>
+        <v>0.0005188494360546038</v>
       </c>
       <c r="Q16">
-        <v>0.2398137372444444</v>
+        <v>0.07571045701333334</v>
       </c>
       <c r="R16">
-        <v>2.158323635199999</v>
+        <v>0.68139411312</v>
       </c>
       <c r="S16">
-        <v>0.0001897808350512673</v>
+        <v>2.191928925286585E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001897808350512673</v>
+        <v>2.191928925286585E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.819271666666667</v>
+        <v>3.617738333333333</v>
       </c>
       <c r="H17">
-        <v>11.457815</v>
+        <v>10.853215</v>
       </c>
       <c r="I17">
-        <v>0.1942779423643085</v>
+        <v>0.06431834967113279</v>
       </c>
       <c r="J17">
-        <v>0.1942779423643085</v>
+        <v>0.0643183496711328</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.565581</v>
+        <v>60.99483233333333</v>
       </c>
       <c r="N17">
-        <v>190.696743</v>
+        <v>182.984497</v>
       </c>
       <c r="O17">
-        <v>0.9889113760447804</v>
+        <v>0.9932667581229833</v>
       </c>
       <c r="P17">
-        <v>0.9889113760447804</v>
+        <v>0.9932667581229833</v>
       </c>
       <c r="Q17">
-        <v>242.774222488505</v>
+        <v>220.6633430675394</v>
       </c>
       <c r="R17">
-        <v>2184.968002396545</v>
+        <v>1985.970087607855</v>
       </c>
       <c r="S17">
-        <v>0.1921236673186369</v>
+        <v>0.06388527866566651</v>
       </c>
       <c r="T17">
-        <v>0.1921236673186368</v>
+        <v>0.06388527866566653</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.819271666666667</v>
+        <v>3.617738333333333</v>
       </c>
       <c r="H18">
-        <v>11.457815</v>
+        <v>10.853215</v>
       </c>
       <c r="I18">
-        <v>0.1942779423643085</v>
+        <v>0.06431834967113279</v>
       </c>
       <c r="J18">
-        <v>0.1942779423643085</v>
+        <v>0.0643183496711328</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.105478</v>
       </c>
       <c r="O18">
-        <v>0.0005469857139744193</v>
+        <v>0.0005725500948492704</v>
       </c>
       <c r="P18">
-        <v>0.0005469857139744193</v>
+        <v>0.0005725500948492704</v>
       </c>
       <c r="Q18">
-        <v>0.1342830456188889</v>
+        <v>0.1271972679744444</v>
       </c>
       <c r="R18">
-        <v>1.20854741057</v>
+        <v>1.14477541177</v>
       </c>
       <c r="S18">
-        <v>0.0001062672590136224</v>
+        <v>3.682547720475561E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001062672590136224</v>
+        <v>3.682547720475562E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.819271666666667</v>
+        <v>3.617738333333333</v>
       </c>
       <c r="H19">
-        <v>11.457815</v>
+        <v>10.853215</v>
       </c>
       <c r="I19">
-        <v>0.1942779423643085</v>
+        <v>0.06431834967113279</v>
       </c>
       <c r="J19">
-        <v>0.1942779423643085</v>
+        <v>0.0643183496711328</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.03516833333333334</v>
+        <v>0.03390533333333334</v>
       </c>
       <c r="N19">
-        <v>0.105505</v>
+        <v>0.101716</v>
       </c>
       <c r="O19">
-        <v>0.0005471257300372695</v>
+        <v>0.0005521294056361363</v>
       </c>
       <c r="P19">
-        <v>0.0005471257300372695</v>
+        <v>0.0005521294056361363</v>
       </c>
       <c r="Q19">
-        <v>0.1343174190638889</v>
+        <v>0.1226606241044444</v>
       </c>
       <c r="R19">
-        <v>1.208856771575</v>
+        <v>1.10394561694</v>
       </c>
       <c r="S19">
-        <v>0.0001062944610462109</v>
+        <v>3.551205217541973E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001062944610462108</v>
+        <v>3.551205217541973E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.819271666666667</v>
+        <v>3.617738333333333</v>
       </c>
       <c r="H20">
-        <v>11.457815</v>
+        <v>10.853215</v>
       </c>
       <c r="I20">
-        <v>0.1942779423643085</v>
+        <v>0.06431834967113279</v>
       </c>
       <c r="J20">
-        <v>0.1942779423643085</v>
+        <v>0.0643183496711328</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4795373333333333</v>
+        <v>0.3125506666666666</v>
       </c>
       <c r="N20">
-        <v>1.438612</v>
+        <v>0.9376519999999999</v>
       </c>
       <c r="O20">
-        <v>0.007460325489222087</v>
+        <v>0.005089712940476763</v>
       </c>
       <c r="P20">
-        <v>0.007460325489222088</v>
+        <v>0.005089712940476763</v>
       </c>
       <c r="Q20">
-        <v>1.831483350308889</v>
+        <v>1.130726527908889</v>
       </c>
       <c r="R20">
-        <v>16.48335015278</v>
+        <v>10.17653875118</v>
       </c>
       <c r="S20">
-        <v>0.00144937668541407</v>
+        <v>0.0003273619366312739</v>
       </c>
       <c r="T20">
-        <v>0.00144937668541407</v>
+        <v>0.000327361936631274</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.819271666666667</v>
+        <v>3.617738333333333</v>
       </c>
       <c r="H21">
-        <v>11.457815</v>
+        <v>10.853215</v>
       </c>
       <c r="I21">
-        <v>0.1942779423643085</v>
+        <v>0.06431834967113279</v>
       </c>
       <c r="J21">
-        <v>0.1942779423643085</v>
+        <v>0.0643183496711328</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1628933333333333</v>
+        <v>0.03186166666666667</v>
       </c>
       <c r="N21">
-        <v>0.48868</v>
+        <v>0.095585</v>
       </c>
       <c r="O21">
-        <v>0.00253418702198581</v>
+        <v>0.0005188494360546039</v>
       </c>
       <c r="P21">
-        <v>0.00253418702198581</v>
+        <v>0.0005188494360546038</v>
       </c>
       <c r="Q21">
-        <v>0.622133892688889</v>
+        <v>0.1152671728638889</v>
       </c>
       <c r="R21">
-        <v>5.5992050342</v>
+        <v>1.037404555775</v>
       </c>
       <c r="S21">
-        <v>0.0004923366401977377</v>
+        <v>3.337153945483007E-05</v>
       </c>
       <c r="T21">
-        <v>0.0004923366401977377</v>
+        <v>3.337153945483007E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.107047</v>
+        <v>2.280634333333333</v>
       </c>
       <c r="H22">
-        <v>6.321141</v>
+        <v>6.841902999999999</v>
       </c>
       <c r="I22">
-        <v>0.1071808426715449</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="J22">
-        <v>0.1071808426715449</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.565581</v>
+        <v>60.99483233333333</v>
       </c>
       <c r="N22">
-        <v>190.696743</v>
+        <v>182.984497</v>
       </c>
       <c r="O22">
-        <v>0.9889113760447804</v>
+        <v>0.9932667581229833</v>
       </c>
       <c r="P22">
-        <v>0.9889113760447804</v>
+        <v>0.9932667581229833</v>
       </c>
       <c r="Q22">
-        <v>133.935666749307</v>
+        <v>139.1069087753101</v>
       </c>
       <c r="R22">
-        <v>1205.421000743763</v>
+        <v>1251.962178977791</v>
       </c>
       <c r="S22">
-        <v>0.1059923546119566</v>
+        <v>0.04027349313161673</v>
       </c>
       <c r="T22">
-        <v>0.1059923546119566</v>
+        <v>0.04027349313161674</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.107047</v>
+        <v>2.280634333333333</v>
       </c>
       <c r="H23">
-        <v>6.321141</v>
+        <v>6.841902999999999</v>
       </c>
       <c r="I23">
-        <v>0.1071808426715449</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="J23">
-        <v>0.1071808426715449</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1869,22 +1869,22 @@
         <v>0.105478</v>
       </c>
       <c r="O23">
-        <v>0.0005469857139744193</v>
+        <v>0.0005725500948492704</v>
       </c>
       <c r="P23">
-        <v>0.0005469857139744193</v>
+        <v>0.0005725500948492704</v>
       </c>
       <c r="Q23">
-        <v>0.07408236782200001</v>
+        <v>0.0801855827371111</v>
       </c>
       <c r="R23">
-        <v>0.666741310398</v>
+        <v>0.721670244634</v>
       </c>
       <c r="S23">
-        <v>5.86263897530749E-05</v>
+        <v>2.321490387536311E-05</v>
       </c>
       <c r="T23">
-        <v>5.86263897530749E-05</v>
+        <v>2.321490387536311E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.107047</v>
+        <v>2.280634333333333</v>
       </c>
       <c r="H24">
-        <v>6.321141</v>
+        <v>6.841902999999999</v>
       </c>
       <c r="I24">
-        <v>0.1071808426715449</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="J24">
-        <v>0.1071808426715449</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.03516833333333334</v>
+        <v>0.03390533333333334</v>
       </c>
       <c r="N24">
-        <v>0.105505</v>
+        <v>0.101716</v>
       </c>
       <c r="O24">
-        <v>0.0005471257300372695</v>
+        <v>0.0005521294056361363</v>
       </c>
       <c r="P24">
-        <v>0.0005471257300372695</v>
+        <v>0.0005521294056361363</v>
       </c>
       <c r="Q24">
-        <v>0.07410133124500001</v>
+        <v>0.0773256672831111</v>
       </c>
       <c r="R24">
-        <v>0.6669119812049999</v>
+        <v>0.6959310055479999</v>
       </c>
       <c r="S24">
-        <v>5.864139679267874E-05</v>
+        <v>2.238691634830424E-05</v>
       </c>
       <c r="T24">
-        <v>5.864139679267873E-05</v>
+        <v>2.238691634830424E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.107047</v>
+        <v>2.280634333333333</v>
       </c>
       <c r="H25">
-        <v>6.321141</v>
+        <v>6.841902999999999</v>
       </c>
       <c r="I25">
-        <v>0.1071808426715449</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="J25">
-        <v>0.1071808426715449</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4795373333333333</v>
+        <v>0.3125506666666666</v>
       </c>
       <c r="N25">
-        <v>1.438612</v>
+        <v>0.9376519999999999</v>
       </c>
       <c r="O25">
-        <v>0.007460325489222087</v>
+        <v>0.005089712940476763</v>
       </c>
       <c r="P25">
-        <v>0.007460325489222088</v>
+        <v>0.005089712940476763</v>
       </c>
       <c r="Q25">
-        <v>1.010407699588</v>
+        <v>0.7128137813062221</v>
       </c>
       <c r="R25">
-        <v>9.093669296291999</v>
+        <v>6.415324031755999</v>
       </c>
       <c r="S25">
-        <v>0.0007996039725388288</v>
+        <v>0.0002063700586714004</v>
       </c>
       <c r="T25">
-        <v>0.0007996039725388288</v>
+        <v>0.0002063700586714004</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.107047</v>
+        <v>2.280634333333333</v>
       </c>
       <c r="H26">
-        <v>6.321141</v>
+        <v>6.841902999999999</v>
       </c>
       <c r="I26">
-        <v>0.1071808426715449</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="J26">
-        <v>0.1071808426715449</v>
+        <v>0.04054650254048892</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.1628933333333333</v>
+        <v>0.03186166666666667</v>
       </c>
       <c r="N26">
-        <v>0.48868</v>
+        <v>0.095585</v>
       </c>
       <c r="O26">
-        <v>0.00253418702198581</v>
+        <v>0.0005188494360546039</v>
       </c>
       <c r="P26">
-        <v>0.00253418702198581</v>
+        <v>0.0005188494360546038</v>
       </c>
       <c r="Q26">
-        <v>0.34322390932</v>
+        <v>0.07266481091722223</v>
       </c>
       <c r="R26">
-        <v>3.08901518388</v>
+        <v>0.653983298255</v>
       </c>
       <c r="S26">
-        <v>0.000271616300503732</v>
+        <v>2.103752997711924E-05</v>
       </c>
       <c r="T26">
-        <v>0.0002716163005037319</v>
+        <v>2.103752997711924E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.161562666666667</v>
+        <v>3.864558666666666</v>
       </c>
       <c r="H27">
-        <v>6.484688</v>
+        <v>11.593676</v>
       </c>
       <c r="I27">
-        <v>0.1099539346301649</v>
+        <v>0.06870647148718791</v>
       </c>
       <c r="J27">
-        <v>0.1099539346301649</v>
+        <v>0.06870647148718792</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>63.565581</v>
+        <v>60.99483233333333</v>
       </c>
       <c r="N27">
-        <v>190.696743</v>
+        <v>182.984497</v>
       </c>
       <c r="O27">
-        <v>0.9889113760447804</v>
+        <v>0.9932667581229833</v>
       </c>
       <c r="P27">
-        <v>0.9889113760447804</v>
+        <v>0.9932667581229833</v>
       </c>
       <c r="Q27">
-        <v>137.400986774576</v>
+        <v>235.7181079156635</v>
       </c>
       <c r="R27">
-        <v>1236.608880971184</v>
+        <v>2121.462971240972</v>
       </c>
       <c r="S27">
-        <v>0.1087346967966542</v>
+        <v>0.06824385419614831</v>
       </c>
       <c r="T27">
-        <v>0.1087346967966542</v>
+        <v>0.06824385419614833</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.161562666666667</v>
+        <v>3.864558666666666</v>
       </c>
       <c r="H28">
-        <v>6.484688</v>
+        <v>11.593676</v>
       </c>
       <c r="I28">
-        <v>0.1099539346301649</v>
+        <v>0.06870647148718791</v>
       </c>
       <c r="J28">
-        <v>0.1099539346301649</v>
+        <v>0.06870647148718792</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2179,22 +2179,22 @@
         <v>0.105478</v>
       </c>
       <c r="O28">
-        <v>0.0005469857139744193</v>
+        <v>0.0005725500948492704</v>
       </c>
       <c r="P28">
-        <v>0.0005469857139744193</v>
+        <v>0.0005725500948492704</v>
       </c>
       <c r="Q28">
-        <v>0.07599910231822223</v>
+        <v>0.1358753063475555</v>
       </c>
       <c r="R28">
-        <v>0.6839919208640001</v>
+        <v>1.222877757128</v>
       </c>
       <c r="S28">
-        <v>6.014323143797739E-05</v>
+        <v>3.933789676674813E-05</v>
       </c>
       <c r="T28">
-        <v>6.014323143797739E-05</v>
+        <v>3.933789676674813E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.161562666666667</v>
+        <v>3.864558666666666</v>
       </c>
       <c r="H29">
-        <v>6.484688</v>
+        <v>11.593676</v>
       </c>
       <c r="I29">
-        <v>0.1099539346301649</v>
+        <v>0.06870647148718791</v>
       </c>
       <c r="J29">
-        <v>0.1099539346301649</v>
+        <v>0.06870647148718792</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.03516833333333334</v>
+        <v>0.03390533333333334</v>
       </c>
       <c r="N29">
-        <v>0.105505</v>
+        <v>0.101716</v>
       </c>
       <c r="O29">
-        <v>0.0005471257300372695</v>
+        <v>0.0005521294056361363</v>
       </c>
       <c r="P29">
-        <v>0.0005471257300372695</v>
+        <v>0.0005521294056361363</v>
       </c>
       <c r="Q29">
-        <v>0.07601855638222223</v>
+        <v>0.1310291497795555</v>
       </c>
       <c r="R29">
-        <v>0.68416700744</v>
+        <v>1.179262348016</v>
       </c>
       <c r="S29">
-        <v>6.015862675499919E-05</v>
+        <v>3.79348632655772E-05</v>
       </c>
       <c r="T29">
-        <v>6.015862675499919E-05</v>
+        <v>3.793486326557721E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.161562666666667</v>
+        <v>3.864558666666666</v>
       </c>
       <c r="H30">
-        <v>6.484688</v>
+        <v>11.593676</v>
       </c>
       <c r="I30">
-        <v>0.1099539346301649</v>
+        <v>0.06870647148718791</v>
       </c>
       <c r="J30">
-        <v>0.1099539346301649</v>
+        <v>0.06870647148718792</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4795373333333333</v>
+        <v>0.3125506666666666</v>
       </c>
       <c r="N30">
-        <v>1.438612</v>
+        <v>0.9376519999999999</v>
       </c>
       <c r="O30">
-        <v>0.007460325489222087</v>
+        <v>0.005089712940476763</v>
       </c>
       <c r="P30">
-        <v>0.007460325489222088</v>
+        <v>0.005089712940476763</v>
       </c>
       <c r="Q30">
-        <v>1.036549997006222</v>
+        <v>1.207870387639111</v>
       </c>
       <c r="R30">
-        <v>9.328949973056</v>
+        <v>10.870833488752</v>
       </c>
       <c r="S30">
-        <v>0.0008202921411616784</v>
+        <v>0.000349696217022838</v>
       </c>
       <c r="T30">
-        <v>0.0008202921411616785</v>
+        <v>0.0003496962170228381</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.161562666666667</v>
+        <v>3.864558666666666</v>
       </c>
       <c r="H31">
-        <v>6.484688</v>
+        <v>11.593676</v>
       </c>
       <c r="I31">
-        <v>0.1099539346301649</v>
+        <v>0.06870647148718791</v>
       </c>
       <c r="J31">
-        <v>0.1099539346301649</v>
+        <v>0.06870647148718792</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.1628933333333333</v>
+        <v>0.03186166666666667</v>
       </c>
       <c r="N31">
-        <v>0.48868</v>
+        <v>0.095585</v>
       </c>
       <c r="O31">
-        <v>0.00253418702198581</v>
+        <v>0.0005188494360546039</v>
       </c>
       <c r="P31">
-        <v>0.00253418702198581</v>
+        <v>0.0005188494360546038</v>
       </c>
       <c r="Q31">
-        <v>0.3521041479822222</v>
+        <v>0.1231312800511111</v>
       </c>
       <c r="R31">
-        <v>3.16893733184</v>
+        <v>1.10818152046</v>
       </c>
       <c r="S31">
-        <v>0.00027864383415604</v>
+        <v>3.564831398442917E-05</v>
       </c>
       <c r="T31">
-        <v>0.00027864383415604</v>
+        <v>3.564831398442917E-05</v>
       </c>
     </row>
   </sheetData>
